--- a/general/Front End - II grupa.xlsx
+++ b/general/Front End - II grupa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="49">
   <si>
     <t>R BR</t>
   </si>
@@ -143,13 +143,31 @@
   </si>
   <si>
     <t>EVIDENCIJA POLAZNIKA</t>
+  </si>
+  <si>
+    <t>OBUKA:FRONT END DEVELOPER</t>
+  </si>
+  <si>
+    <t>Marija</t>
+  </si>
+  <si>
+    <t>Mirović</t>
+  </si>
+  <si>
+    <t>Milica </t>
+  </si>
+  <si>
+    <t>Vojislav</t>
+  </si>
+  <si>
+    <t>Dragosavac</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +208,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -199,7 +241,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -235,11 +277,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -270,6 +373,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +760,7 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
   </cols>
@@ -897,10 +1024,182 @@
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>
     </row>
+    <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+    </row>
+    <row r="19" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="17">
+        <v>1</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="17">
+        <v>2</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="17">
+        <v>3</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="17">
+        <v>4</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="17">
+        <v>5</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="17">
+        <v>6</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="17">
+        <v>7</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="17">
+        <v>8</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="17">
+        <v>9</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="17">
+        <v>10</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="17">
+        <v>11</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="17">
+        <v>12</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="17">
+        <v>13</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="19"/>
+      <c r="C33" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
